--- a/data/outputs/OR_elsevier/52.xlsx
+++ b/data/outputs/OR_elsevier/52.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS139"/>
+  <dimension ref="A1:BU139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -943,6 +953,12 @@
           <t>2-s2.0-84924537532</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1163,6 +1179,12 @@
         <is>
           <t>2-s2.0-84931324815</t>
         </is>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -1375,6 +1397,12 @@
           <t>2-s2.0-84929163930</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1588,6 +1616,12 @@
           <t>2-s2.0-84921434450</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1812,6 +1846,12 @@
         <is>
           <t>2-s2.0-84940963601</t>
         </is>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="7">
@@ -2024,6 +2064,12 @@
           <t>2-s2.0-84940958330</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2251,6 +2297,12 @@
           <t>2-s2.0-84922896285</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2466,6 +2518,12 @@
           <t>2-s2.0-84921436247</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2689,6 +2747,12 @@
           <t>2-s2.0-84939252430</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2916,6 +2980,12 @@
           <t>2-s2.0-84929206641</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3134,6 +3204,12 @@
         <is>
           <t>2-s2.0-84921434373</t>
         </is>
+      </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -3346,6 +3422,12 @@
           <t>2-s2.0-84940959736</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3557,6 +3639,12 @@
           <t>2-s2.0-84922883034</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3782,6 +3870,12 @@
           <t>2-s2.0-84924548397</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4009,6 +4103,12 @@
           <t>2-s2.0-84939253734</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4224,6 +4324,12 @@
           <t>2-s2.0-84940962254</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4451,6 +4557,12 @@
           <t>2-s2.0-84936872019</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4675,6 +4787,12 @@
         <is>
           <t>2-s2.0-84939255684</t>
         </is>
+      </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20">
@@ -4887,6 +5005,12 @@
           <t>2-s2.0-84931571430</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5106,6 +5230,12 @@
           <t>2-s2.0-84924569487</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5323,6 +5453,12 @@
           <t>2-s2.0-84940956577</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5542,6 +5678,12 @@
           <t>2-s2.0-84931571837</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5759,6 +5901,12 @@
           <t>2-s2.0-84921433053</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5982,6 +6130,12 @@
           <t>2-s2.0-84939251710</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6211,6 +6365,12 @@
           <t>2-s2.0-84955330064</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6428,6 +6588,12 @@
           <t>2-s2.0-84943350374</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6649,6 +6815,12 @@
           <t>2-s2.0-84939266457</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6876,6 +7048,12 @@
           <t>2-s2.0-84939253717</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7098,6 +7276,12 @@
         <is>
           <t>2-s2.0-84939266408</t>
         </is>
+      </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -7310,6 +7494,12 @@
           <t>2-s2.0-84929279748</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7529,6 +7719,12 @@
           <t>2-s2.0-84929152841</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7747,6 +7943,12 @@
         <is>
           <t>2-s2.0-84929268312</t>
         </is>
+      </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -7943,6 +8145,12 @@
           <t>2-s2.0-85027955004</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8170,6 +8378,12 @@
           <t>2-s2.0-84955312992</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8392,6 +8606,12 @@
         <is>
           <t>2-s2.0-84940953377</t>
         </is>
+      </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -8606,6 +8826,12 @@
           <t>2-s2.0-84923021735</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8825,6 +9051,12 @@
           <t>2-s2.0-84943351976</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9042,6 +9274,12 @@
           <t>2-s2.0-84923034190</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9257,6 +9495,12 @@
           <t>2-s2.0-84955397427</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9484,6 +9728,12 @@
           <t>2-s2.0-84943364608</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9698,6 +9948,12 @@
         <is>
           <t>2-s2.0-84940958528</t>
         </is>
+      </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -9910,6 +10166,12 @@
           <t>2-s2.0-84940958455</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10135,6 +10397,12 @@
           <t>2-s2.0-84936891789</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10354,6 +10622,12 @@
           <t>2-s2.0-84923040534</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10575,6 +10849,12 @@
           <t>2-s2.0-84923013942</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10795,6 +11075,12 @@
         <is>
           <t>2-s2.0-84921434625</t>
         </is>
+      </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -11007,6 +11293,12 @@
           <t>2-s2.0-84955389933</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11230,6 +11522,12 @@
           <t>2-s2.0-84939255963</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11444,6 +11742,12 @@
         <is>
           <t>2-s2.0-84931563242</t>
         </is>
+      </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="51">
@@ -11656,6 +11960,12 @@
           <t>2-s2.0-84926418680</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11871,6 +12181,12 @@
           <t>2-s2.0-84926420815</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12090,6 +12406,12 @@
           <t>2-s2.0-84921436986</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12305,6 +12627,12 @@
           <t>2-s2.0-84955366520</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12519,6 +12847,12 @@
         <is>
           <t>2-s2.0-84943362336</t>
         </is>
+      </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -12731,6 +13065,12 @@
           <t>2-s2.0-84936891147</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12950,6 +13290,12 @@
           <t>2-s2.0-84926418675</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13168,6 +13514,12 @@
         <is>
           <t>2-s2.0-84926408748</t>
         </is>
+      </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -13384,6 +13736,12 @@
           <t>2-s2.0-84924543839</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13607,6 +13965,12 @@
           <t>2-s2.0-84922902057</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13826,6 +14190,12 @@
           <t>2-s2.0-84921436654</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -14045,6 +14415,12 @@
           <t>2-s2.0-84939265632</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14263,6 +14639,12 @@
         <is>
           <t>2-s2.0-84936892032</t>
         </is>
+      </c>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="64">
@@ -14475,6 +14857,12 @@
           <t>2-s2.0-84936891862</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14698,6 +15086,12 @@
           <t>2-s2.0-84936891565</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14912,6 +15306,12 @@
         <is>
           <t>2-s2.0-84931410507</t>
         </is>
+      </c>
+      <c r="BT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -15124,6 +15524,12 @@
           <t>2-s2.0-84924632133</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15335,6 +15741,12 @@
           <t>2-s2.0-84955354944</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15556,6 +15968,12 @@
           <t>2-s2.0-84955348937</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15774,6 +16192,12 @@
         <is>
           <t>2-s2.0-84943361858</t>
         </is>
+      </c>
+      <c r="BT70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="71">
@@ -15986,6 +16410,12 @@
           <t>2-s2.0-84940961258</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16213,6 +16643,12 @@
           <t>2-s2.0-84936890616</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16432,6 +16868,12 @@
           <t>2-s2.0-84931352571</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16653,6 +17095,12 @@
           <t>2-s2.0-84926421626</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16879,6 +17327,12 @@
         <is>
           <t>2-s2.0-84926322842</t>
         </is>
+      </c>
+      <c r="BT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="76">
@@ -17091,6 +17545,12 @@
           <t>2-s2.0-84924545949</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17298,6 +17758,12 @@
           <t>2-s2.0-84921436153</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17512,6 +17978,12 @@
         <is>
           <t>2-s2.0-84955306262</t>
         </is>
+      </c>
+      <c r="BT78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -17724,6 +18196,12 @@
           <t>2-s2.0-84955384551</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17937,6 +18415,12 @@
           <t>2-s2.0-84955362646</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -18157,6 +18641,12 @@
         <is>
           <t>2-s2.0-84955395416</t>
         </is>
+      </c>
+      <c r="BT81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="82">
@@ -18369,6 +18859,12 @@
           <t>2-s2.0-84943361802</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18588,6 +19084,12 @@
           <t>2-s2.0-84939253284</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18811,6 +19313,12 @@
           <t>2-s2.0-84936890956</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -19032,6 +19540,12 @@
           <t>2-s2.0-84931570520</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -19259,6 +19773,12 @@
           <t>2-s2.0-84931561845</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19478,6 +19998,12 @@
           <t>2-s2.0-84929174268</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19703,6 +20229,12 @@
           <t>2-s2.0-84923005548</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19922,6 +20454,12 @@
           <t>2-s2.0-84921435617</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -20147,6 +20685,12 @@
           <t>2-s2.0-84955311193</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -20357,6 +20901,12 @@
         <is>
           <t>2-s2.0-84955364372</t>
         </is>
+      </c>
+      <c r="BT91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="92">
@@ -20569,6 +21119,12 @@
           <t>2-s2.0-84955369079</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20782,6 +21338,12 @@
           <t>2-s2.0-84943277861</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20993,6 +21555,12 @@
           <t>2-s2.0-84943351571</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -21219,6 +21787,12 @@
         <is>
           <t>2-s2.0-84936890952</t>
         </is>
+      </c>
+      <c r="BT95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="96">
@@ -21431,6 +22005,12 @@
           <t>2-s2.0-84924581347</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21650,6 +22230,12 @@
           <t>2-s2.0-84924506716</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21868,6 +22454,12 @@
         <is>
           <t>2-s2.0-84924435487</t>
         </is>
+      </c>
+      <c r="BT98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="99">
@@ -22080,6 +22672,12 @@
           <t>2-s2.0-84922989592</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -22301,6 +22899,12 @@
           <t>2-s2.0-84955284111</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22528,6 +23132,12 @@
           <t>2-s2.0-84955337234</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22747,6 +23357,12 @@
           <t>2-s2.0-84943352573</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22968,6 +23584,12 @@
           <t>2-s2.0-84929296945</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -23186,6 +23808,12 @@
         <is>
           <t>2-s2.0-84926311835</t>
         </is>
+      </c>
+      <c r="BT104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="105">
@@ -23397,6 +24025,12 @@
         <is>
           <t>2-s2.0-84926380486</t>
         </is>
+      </c>
+      <c r="BT105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="106">
@@ -23601,6 +24235,12 @@
           <t>2-s2.0-85027939592</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23821,6 +24461,12 @@
         <is>
           <t>2-s2.0-84955375366</t>
         </is>
+      </c>
+      <c r="BT107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="108">
@@ -24033,6 +24679,12 @@
           <t>2-s2.0-84955359889</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -24244,6 +24896,12 @@
           <t>2-s2.0-84931302973</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -24455,6 +25113,12 @@
           <t>2-s2.0-84931567914</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24677,6 +25341,12 @@
         <is>
           <t>2-s2.0-84929207957</t>
         </is>
+      </c>
+      <c r="BT111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -24889,6 +25559,12 @@
           <t>2-s2.0-84929148572</t>
         </is>
       </c>
+      <c r="BT112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -25107,6 +25783,12 @@
         <is>
           <t>2-s2.0-84926344304</t>
         </is>
+      </c>
+      <c r="BT113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="114">
@@ -25319,6 +26001,12 @@
           <t>2-s2.0-84922966443</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -25533,6 +26221,12 @@
         <is>
           <t>2-s2.0-84921438759</t>
         </is>
+      </c>
+      <c r="BT115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="116">
@@ -25741,6 +26435,12 @@
           <t>2-s2.0-84955281207</t>
         </is>
       </c>
+      <c r="BT116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25948,6 +26648,12 @@
           <t>2-s2.0-84943365139</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -26159,6 +26865,12 @@
           <t>2-s2.0-84936891982</t>
         </is>
       </c>
+      <c r="BT118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -26373,6 +27085,12 @@
         <is>
           <t>2-s2.0-84926407422</t>
         </is>
+      </c>
+      <c r="BT119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -26572,6 +27290,12 @@
         <is>
           <t>2-s2.0-85027929997</t>
         </is>
+      </c>
+      <c r="BT120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="121">
@@ -26756,6 +27480,12 @@
       <c r="BQ121" t="inlineStr"/>
       <c r="BR121" t="inlineStr"/>
       <c r="BS121" t="inlineStr"/>
+      <c r="BT121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -26974,6 +27704,12 @@
         <is>
           <t>2-s2.0-84955350649</t>
         </is>
+      </c>
+      <c r="BT122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -27158,6 +27894,12 @@
       <c r="BQ123" t="inlineStr"/>
       <c r="BR123" t="inlineStr"/>
       <c r="BS123" t="inlineStr"/>
+      <c r="BT123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -27377,6 +28119,12 @@
           <t>2-s2.0-84943360252</t>
         </is>
       </c>
+      <c r="BT124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -27591,6 +28339,12 @@
         <is>
           <t>2-s2.0-84929163426</t>
         </is>
+      </c>
+      <c r="BT125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -27775,6 +28529,12 @@
       <c r="BQ126" t="inlineStr"/>
       <c r="BR126" t="inlineStr"/>
       <c r="BS126" t="inlineStr"/>
+      <c r="BT126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -27954,6 +28714,12 @@
       <c r="BQ127" t="inlineStr"/>
       <c r="BR127" t="inlineStr"/>
       <c r="BS127" t="inlineStr"/>
+      <c r="BT127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -28133,6 +28899,12 @@
       <c r="BQ128" t="inlineStr"/>
       <c r="BR128" t="inlineStr"/>
       <c r="BS128" t="inlineStr"/>
+      <c r="BT128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -28312,6 +29084,12 @@
       <c r="BQ129" t="inlineStr"/>
       <c r="BR129" t="inlineStr"/>
       <c r="BS129" t="inlineStr"/>
+      <c r="BT129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -28491,6 +29269,12 @@
       <c r="BQ130" t="inlineStr"/>
       <c r="BR130" t="inlineStr"/>
       <c r="BS130" t="inlineStr"/>
+      <c r="BT130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -28670,6 +29454,12 @@
       <c r="BQ131" t="inlineStr"/>
       <c r="BR131" t="inlineStr"/>
       <c r="BS131" t="inlineStr"/>
+      <c r="BT131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -28849,6 +29639,12 @@
       <c r="BQ132" t="inlineStr"/>
       <c r="BR132" t="inlineStr"/>
       <c r="BS132" t="inlineStr"/>
+      <c r="BT132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -29028,6 +29824,12 @@
       <c r="BQ133" t="inlineStr"/>
       <c r="BR133" t="inlineStr"/>
       <c r="BS133" t="inlineStr"/>
+      <c r="BT133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -29207,6 +30009,12 @@
       <c r="BQ134" t="inlineStr"/>
       <c r="BR134" t="inlineStr"/>
       <c r="BS134" t="inlineStr"/>
+      <c r="BT134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -29386,6 +30194,12 @@
       <c r="BQ135" t="inlineStr"/>
       <c r="BR135" t="inlineStr"/>
       <c r="BS135" t="inlineStr"/>
+      <c r="BT135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -29565,6 +30379,12 @@
       <c r="BQ136" t="inlineStr"/>
       <c r="BR136" t="inlineStr"/>
       <c r="BS136" t="inlineStr"/>
+      <c r="BT136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -29760,6 +30580,12 @@
       <c r="BQ137" t="inlineStr"/>
       <c r="BR137" t="inlineStr"/>
       <c r="BS137" t="inlineStr"/>
+      <c r="BT137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -29951,6 +30777,12 @@
       <c r="BQ138" t="inlineStr"/>
       <c r="BR138" t="inlineStr"/>
       <c r="BS138" t="inlineStr"/>
+      <c r="BT138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -30128,6 +30960,12 @@
         <v>18322730</v>
       </c>
       <c r="BS139" t="inlineStr"/>
+      <c r="BT139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU139" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
